--- a/biology/Histoire de la zoologie et de la botanique/Homo_japeticus/Homo_japeticus.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Homo_japeticus/Homo_japeticus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Homo japeticus (littéralement « homme japétique ») est un taxon obsolète inventé en 1825 par Jean-Baptiste Bory de Saint-Vincent[1],[2],[3], naturaliste français qui a contribué à la constitution du racisme scientifique au XIXe siècle[4],[5]. Il est censé désigner une espèce du genre Homo. Il est inventé en 1825 par le naturaliste français Jean-Baptiste Bory de Saint-Vincent. Il est également appelé espèce japétique[6].
-Ce taxon n'est plus utilisé aujourd'hui en anthropologie. Le consensus scientifique actuel rejette en tout état de cause l’existence d'arguments biologiques qui pourraient légitimer une classification scientifique interne à l'espèce humaine selon des critères morphologiques ou culturels[7],[8],[9].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Homo japeticus (littéralement « homme japétique ») est un taxon obsolète inventé en 1825 par Jean-Baptiste Bory de Saint-Vincent naturaliste français qui a contribué à la constitution du racisme scientifique au XIXe siècle,. Il est censé désigner une espèce du genre Homo. Il est inventé en 1825 par le naturaliste français Jean-Baptiste Bory de Saint-Vincent. Il est également appelé espèce japétique.
+Ce taxon n'est plus utilisé aujourd'hui en anthropologie. Le consensus scientifique actuel rejette en tout état de cause l’existence d'arguments biologiques qui pourraient légitimer une classification scientifique interne à l'espèce humaine selon des critères morphologiques ou culturels.
 </t>
         </is>
       </c>
@@ -512,18 +524,20 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce comprend les Européens mais aussi les habitants d'Asie Mineure et du Nord de la Perse. Les Turcs n'en font cependant pas partie, étant inclut dans Homo scythicus.
-Le nom Homo japeticus renvoie à l’« audax Japeti genus » mentionné par le poète latin Horace (Odes, I, III, 27). Cette expression signifie « les enfants audacieux de Japet » désignant les Titans Atlas, Prométhée, etc. Ce nom veut montrer que les Européens disputent aux dieux leur puissance[10].
+Le nom Homo japeticus renvoie à l’« audax Japeti genus » mentionné par le poète latin Horace (Odes, I, III, 27). Cette expression signifie « les enfants audacieux de Japet » désignant les Titans Atlas, Prométhée, etc. Ce nom veut montrer que les Européens disputent aux dieux leur puissance.
 Cette espèce est composée de deux groupes, chacun divisée en plusieurs races :
 Gens togata : les « races où de tout temps on porta des vêtements larges ; où les mœurs ont généralement subordonné les femmes aux hommes jusqu’à les rendre esclaves ; où la tête devient, par l’effet de l’âge, le plus souvent chauve par le front ». On y trouve :
 la race caucasique (ou orientale) : les hommes des monts du Caucase : notamment, les Géorgiens et les Circassiens ;
 la race pélage (ou méridionale) : les hommes des rivages européens de la Méditerranée comme les Grecs anciens, les Romains, les Thraces de l’Antiquité, les Grecs et les Italiens modernes.
 Gens bracata : les « races dont certains vêtements étroits sont aujourd’hui adoptés par toutes les variétés ; où les mœurs ont subordonné souvent jusqu’à la faiblesse les hommes aux femmes, où la tête devient avec l’âge plus communément chauve par le vertex ». On y trouve :
 la race celtique (ou occidentale) : parmi eux les anciens Gaulois, les Français, les Gallois, les Basques ;
-la race germanique (ou boréale) : race composée de deux variétés, la variété teutone (les Allemands, les Anglais, les Scandinaves, etc.) et la variété sclavone (les Slaves [Polonais, Russes, Tchèques, etc.] et les Hongrois). Les Cosaques sont des hybrides de Japétiques sclavons et Scythiques[10].
-Homo japeticus est l'espèce européenne, civilisée et impérialiste qui a la mainmise sur le monde d'après Bory de Saint-Vincent[10].
+la race germanique (ou boréale) : race composée de deux variétés, la variété teutone (les Allemands, les Anglais, les Scandinaves, etc.) et la variété sclavone (les Slaves [Polonais, Russes, Tchèques, etc.] et les Hongrois). Les Cosaques sont des hybrides de Japétiques sclavons et Scythiques.
+Homo japeticus est l'espèce européenne, civilisée et impérialiste qui a la mainmise sur le monde d'après Bory de Saint-Vincent.
 </t>
         </is>
       </c>
